--- a/EnglishGrammar.xlsx
+++ b/EnglishGrammar.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>冠词分为不定冠词a/an及定冠词the</t>
   </si>
@@ -25,24 +25,939 @@
   </si>
   <si>
     <t>1) 表示"一个"，意为one；指某人或某物，意为a certain。 A Mr. Ling is waiting for you. 2) 代表一类人或物。  A knife is a tool for cutting with. Mr. Smith is an engineer.</t>
+  </si>
+  <si>
+    <t>名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词可以分为专有名词（Proper Nouns）和普通名词（Common Nouns）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John is a student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student是普通名词，john是专有名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通名词前可以用不定冠词a/an、定冠词the或零冠词。专有名词前一般都用零冠词，专有名词的首字母要大写。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通名词又可分为个体名词，集体名词，物质名词和抽象名词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体名词：book，table，house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物质名词：表示无法分为个体的实物。milk牛奶，water水，honey蜂蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体名词：表示若干个个体组成的集合体family，crowd人群，army军队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象名词：表示动作、状态、品质、感情等抽象概念。Honesty诚实，happiness幸福，love爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体名词和集体名词可以用数目来计算，称为可数名词。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物质名词和抽象名词一般无法用数目计算称为不可数名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在进行时</t>
+  </si>
+  <si>
+    <t>变化规则</t>
+  </si>
+  <si>
+    <t>情况</t>
+  </si>
+  <si>
+    <t>变化</t>
+  </si>
+  <si>
+    <t>原形—-ing形式</t>
+  </si>
+  <si>
+    <t>一般动词</t>
+  </si>
+  <si>
+    <t>加+ing</t>
+  </si>
+  <si>
+    <t>wash——washing</t>
+  </si>
+  <si>
+    <t>read——reading</t>
+  </si>
+  <si>
+    <t>以不发音字母e结尾的动词</t>
+  </si>
+  <si>
+    <t>去掉e，再加+ing</t>
+  </si>
+  <si>
+    <t>make——making</t>
+  </si>
+  <si>
+    <t>write——writing</t>
+  </si>
+  <si>
+    <t>use——using</t>
+  </si>
+  <si>
+    <t>双写最后的辅音字母，再加+ing</t>
+  </si>
+  <si>
+    <t>run——running</t>
+  </si>
+  <si>
+    <t>swim——swimming</t>
+  </si>
+  <si>
+    <t>put——putting</t>
+  </si>
+  <si>
+    <t>以ie结尾的动词</t>
+  </si>
+  <si>
+    <t>改ie为y，再加+ing</t>
+  </si>
+  <si>
+    <t>lie——lying</t>
+  </si>
+  <si>
+    <t>die——dying</t>
+  </si>
+  <si>
+    <t>tie——tying</t>
+  </si>
+  <si>
+    <t>以c结尾的动词</t>
+  </si>
+  <si>
+    <t>变c为ck，再加+ing</t>
+  </si>
+  <si>
+    <t>picnic→picnicking</t>
+  </si>
+  <si>
+    <t>traffic→trafficking</t>
+  </si>
+  <si>
+    <t>（例外：arc作弧形运动，arcing）</t>
+  </si>
+  <si>
+    <t>以l结尾的动词</t>
+  </si>
+  <si>
+    <t>tavel→travelling/traveling(U.S.)</t>
+  </si>
+  <si>
+    <t>worship→worshipping/worshiping(U.S.)</t>
+  </si>
+  <si>
+    <t>handicap→handicapping/handicaping(U.S.)</t>
+  </si>
+  <si>
+    <t>其中不双写的是美式拼写。</t>
+  </si>
+  <si>
+    <t>如果动词原形以非重读音节结尾，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾的动词同样</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>遵循第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条，这类词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多由“前缀+名词”构成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>则末尾的字母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双写与不双写均可。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则末尾的字母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双写与不双写均可。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以重读闭音节结尾的动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>且末尾只有一个辅音字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇These days we are helping the farmers work on the farm.</t>
+  </si>
+  <si>
+    <t>这些天我们在农场帮农民们干活。</t>
+  </si>
+  <si>
+    <t>◇They're having a test this week.</t>
+  </si>
+  <si>
+    <t>这一周，他们在进行一次考试。</t>
+  </si>
+  <si>
+    <t>◇Mr Cheng is visiting our village this month.</t>
+  </si>
+  <si>
+    <t>这个月，程先生在我们村访问。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当句中出现的时间状语是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>these days</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>this week</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">this month,this term </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等时，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果句子所要表达的意义是在这一阶段正在发生的事，则动词应用现在进行时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在进行时态表将来，主要用于表示按计划或安排要发生的动作。常有“意图”“决定”的意思</t>
+  </si>
+  <si>
+    <t>◇They’re getting married next month.</t>
+  </si>
+  <si>
+    <t>他们下个月结婚。</t>
+  </si>
+  <si>
+    <t>◇I hear someone singing.</t>
+  </si>
+  <si>
+    <t>我正听见有人唱歌。</t>
+  </si>
+  <si>
+    <t>◇Do you see anyone over there?</t>
+  </si>
+  <si>
+    <t>你看到那里有什么人吗？</t>
+  </si>
+  <si>
+    <t>◇What does he think of it?</t>
+  </si>
+  <si>
+    <t>他觉得这怎么样？</t>
+  </si>
+  <si>
+    <r>
+      <t>如果这些词使用正在进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>时态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，句子带有某种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>感情色彩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。例如：</t>
+    </r>
+  </si>
+  <si>
+    <t>◇Are you seeing someone off?</t>
+  </si>
+  <si>
+    <t>你在给谁送行吗？</t>
+  </si>
+  <si>
+    <t>◇They are hearing an English talk.</t>
+  </si>
+  <si>
+    <t>他们在听一个英语报告。</t>
+  </si>
+  <si>
+    <t>在英语中，并不是所有的动词都要使用正在进行时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如一些表示状态和感觉的动词，一般不用进行时态，而是用一般现在时表示。例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇We are leaving on Friday。</t>
+  </si>
+  <si>
+    <t>我们星期五离开。</t>
+  </si>
+  <si>
+    <t>◇Are you going anywhere tomorrow？</t>
+  </si>
+  <si>
+    <t>你明天准备去哪儿？</t>
+  </si>
+  <si>
+    <t>◇A foreign guest is giving a lecture this afternoon。</t>
+  </si>
+  <si>
+    <t>今天下午一个外国客人将给我们作报告。</t>
+  </si>
+  <si>
+    <t>◇Are you staying here till next week?</t>
+  </si>
+  <si>
+    <t>你打算在这里呆到下个星期吗？</t>
+  </si>
+  <si>
+    <t>◇It is going to be rather cold tomorrow。</t>
+  </si>
+  <si>
+    <t>明天很可能非常冷。</t>
+  </si>
+  <si>
+    <t>◇She is not going to speak at the meeting。她不打算在那个会上发言。</t>
+  </si>
+  <si>
+    <t>现在进行时还有另外一种含义，即它们能表达即将发生的事情，相当于一般将来时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够用来表示将来状况的动词有：arrive，come，do，get，go，have，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave，meet，play，return，see，spend，start，stay，wear，work 等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅰ、She is perpetually interfering in my affairs.</t>
+  </si>
+  <si>
+    <t>她老是干预我的事。 （不满）</t>
+  </si>
+  <si>
+    <t>Ⅱ、The students are making progress constantly.</t>
+  </si>
+  <si>
+    <t>学生们在不断进步。 （满意）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当其与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>always</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>forever</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>continually</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">constantly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等副词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连用时表示重复的动作，有着极大的感情色彩，表示不满或满意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇Next month my family is moving to Beijing.</t>
+  </si>
+  <si>
+    <t>下个月，我家就要搬到北京去了。（搬的动作并非现在发生，而将在下个月发生。）</t>
+  </si>
+  <si>
+    <t>◇My aunt is leaving for Shanghai at eleven o'clock tomorrow morning.</t>
+  </si>
+  <si>
+    <t>明天早上十一点我婶婶将离开去上海。</t>
+  </si>
+  <si>
+    <t>有些动词从结构来看是现在进行时，但却是表示将要发生的事，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而不表示动作现在正在进行。这些动词往往是一些表示位置移动变化的动词，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：go，come，leave，fly，move，start，begin，arrive，stay，return 等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇When you are passing my way,please drop in.</t>
+  </si>
+  <si>
+    <t>你什么时候路过我家，请进来坐。</t>
+  </si>
+  <si>
+    <r>
+      <t>He is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> work.. (他正在工作。)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The house is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> fire! (房子着火了!)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The road is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>construction. (路正在修。)</t>
+    </r>
+  </si>
+  <si>
+    <t>并不是所有动词都有进行时，一些动词一般在句中不能用现在进行时态，而应用一般现在时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些动词往往是等表示情感状态、知觉认识、愿望或短暂性的动词。例如：see（明白），</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>know（知道；了解），want（需要；想要），like（喜欢），hear，have（有），</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>think（想；认为），hope，hate 等。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在时间、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件状语从句</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，有时可用现在进行时代替</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般将来时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、著名学者周海中教授曾经指出：作为表语时，英语介词可以表示正在“进行”的动作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在表示将来的情况下，特别是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">be going to do sth </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这种结构，已经没有多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的意思了，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>几乎就是用来表达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将要、打算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做什么事情。例如：</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -53,16 +968,89 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF136EC2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF136EC2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -70,13 +1058,382 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -85,6 +1442,144 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,13 +1877,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="166.28515625" customWidth="1"/>
+    <col min="1" max="1" width="166.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25">
@@ -396,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45">
+    <row r="3" spans="1:1" ht="40.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -415,12 +1910,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -429,12 +1987,1178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC76" sqref="AC76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="41"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
+    </row>
+    <row r="6" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="14"/>
+    </row>
+    <row r="7" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="17"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="28"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="22"/>
+    </row>
+    <row r="9" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="14"/>
+    </row>
+    <row r="10" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="17"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="28"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="22"/>
+    </row>
+    <row r="12" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="14"/>
+    </row>
+    <row r="13" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="17"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="28"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="22"/>
+    </row>
+    <row r="15" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="14"/>
+    </row>
+    <row r="16" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="17"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="28"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="22"/>
+    </row>
+    <row r="18" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="14"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="17"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.5" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="22"/>
+    </row>
+    <row r="21" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="17"/>
+    </row>
+    <row r="22" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="17"/>
+    </row>
+    <row r="23" spans="1:32" ht="14.25" thickBot="1">
+      <c r="A23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="17"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="22"/>
+    </row>
+    <row r="26" spans="1:32" ht="15">
+      <c r="A26" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="15">
+      <c r="A27" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="14.25">
+      <c r="A29" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="14.25">
+      <c r="A30" s="45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="14.25">
+      <c r="A31" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="14.25">
+      <c r="A32" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="14.25">
+      <c r="A33" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="14.25">
+      <c r="A34" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="14.25">
+      <c r="A37" s="45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="14.25">
+      <c r="A38" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="14.25">
+      <c r="A42" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="14.25">
+      <c r="A43" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="14.25">
+      <c r="A44" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="14.25">
+      <c r="A45" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="14.25">
+      <c r="A46" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="14.25">
+      <c r="A47" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="14.25">
+      <c r="A48" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="14.25">
+      <c r="A49" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="14.25">
+      <c r="A50" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="14.25">
+      <c r="A51" s="45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="14.25">
+      <c r="A52" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="14.25">
+      <c r="A57" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="14.25">
+      <c r="A58" s="45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="14.25">
+      <c r="A59" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="14.25">
+      <c r="A60" s="45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="14.25">
+      <c r="A61" s="45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="14.25">
+      <c r="A62" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="14.25">
+      <c r="A63" s="45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="14.25">
+      <c r="A64" s="45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="14.25">
+      <c r="A65" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="14.25">
+      <c r="A66" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="14.25">
+      <c r="A67" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="14.25">
+      <c r="A68" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="14.25">
+      <c r="A69" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15">
+      <c r="A71" s="44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15">
+      <c r="A72" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="14.25">
+      <c r="A73" s="45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="14.25">
+      <c r="A74" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="14.25">
+      <c r="A75" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="14.25">
+      <c r="A76" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15">
+      <c r="A77" s="44"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="14.25">
+      <c r="A81" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="14.25">
+      <c r="A82" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="14.25">
+      <c r="A83" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="14.25">
+      <c r="A84" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="14.25">
+      <c r="A92" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="14.25">
+      <c r="A93" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15">
+      <c r="A96" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15">
+      <c r="A97" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15">
+      <c r="A98" s="45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
